--- a/team_specific_matrix/Massachusetts_A.xlsx
+++ b/team_specific_matrix/Massachusetts_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.186046511627907</v>
+        <v>0.1954397394136808</v>
       </c>
       <c r="C2">
-        <v>0.5658914728682171</v>
+        <v>0.5504885993485342</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0310077519379845</v>
+        <v>0.02605863192182411</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1356589147286822</v>
+        <v>0.1302931596091205</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08139534883720931</v>
+        <v>0.09771986970684039</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03267973856209151</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0392156862745098</v>
+        <v>0.03977272727272727</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6993464052287581</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2287581699346405</v>
+        <v>0.2215909090909091</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1136363636363636</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7045454545454546</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1818181818181818</v>
+        <v>0.2452830188679245</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1073825503355705</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01342281879194631</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E6">
-        <v>0.006711409395973154</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="F6">
-        <v>0.03355704697986577</v>
+        <v>0.04324324324324325</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2818791946308725</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02684563758389262</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1476510067114094</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="R6">
-        <v>0.05369127516778523</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="S6">
-        <v>0.3288590604026846</v>
+        <v>0.3405405405405406</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1153846153846154</v>
+        <v>0.1191709844559585</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04487179487179487</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="E7">
-        <v>0.00641025641025641</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="F7">
-        <v>0.03205128205128205</v>
+        <v>0.04663212435233161</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1602564102564103</v>
+        <v>0.1347150259067358</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01923076923076923</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2115384615384615</v>
+        <v>0.2020725388601036</v>
       </c>
       <c r="R7">
-        <v>0.08974358974358974</v>
+        <v>0.1088082901554404</v>
       </c>
       <c r="S7">
-        <v>0.3205128205128205</v>
+        <v>0.3212435233160622</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09352517985611511</v>
+        <v>0.09509202453987731</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03237410071942446</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="E8">
-        <v>0.003597122302158274</v>
+        <v>0.003067484662576687</v>
       </c>
       <c r="F8">
-        <v>0.07913669064748201</v>
+        <v>0.07668711656441718</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1402877697841727</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01438848920863309</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1654676258992806</v>
+        <v>0.1625766871165644</v>
       </c>
       <c r="R8">
-        <v>0.07553956834532374</v>
+        <v>0.07668711656441718</v>
       </c>
       <c r="S8">
-        <v>0.3956834532374101</v>
+        <v>0.3895705521472393</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.152317880794702</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006622516556291391</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05960264900662252</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1655629139072848</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03311258278145696</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.152317880794702</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="R9">
-        <v>0.03973509933774835</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="S9">
-        <v>0.3907284768211921</v>
+        <v>0.3934426229508197</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1224086870681145</v>
+        <v>0.1173139158576052</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02566633761105627</v>
+        <v>0.02346278317152103</v>
       </c>
       <c r="E10">
-        <v>0.0009871668311944718</v>
+        <v>0.0008090614886731392</v>
       </c>
       <c r="F10">
-        <v>0.06515301085883514</v>
+        <v>0.06472491909385113</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1382033563672261</v>
+        <v>0.1440129449838188</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01283316880552813</v>
+        <v>0.01132686084142395</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2388943731490622</v>
+        <v>0.244336569579288</v>
       </c>
       <c r="R10">
-        <v>0.06910167818361303</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="S10">
-        <v>0.3267522211253702</v>
+        <v>0.3211974110032362</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1475409836065574</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08196721311475409</v>
+        <v>0.08445945945945946</v>
       </c>
       <c r="K11">
-        <v>0.1721311475409836</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L11">
-        <v>0.5819672131147541</v>
+        <v>0.5743243243243243</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01639344262295082</v>
+        <v>0.01689189189189189</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.704225352112676</v>
+        <v>0.7167630057803468</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2464788732394366</v>
+        <v>0.2254335260115607</v>
       </c>
       <c r="K12">
-        <v>0.007042253521126761</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="L12">
-        <v>0.02112676056338028</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02112676056338028</v>
+        <v>0.01734104046242774</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7027027027027027</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02298850574712644</v>
+        <v>0.03</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1206896551724138</v>
+        <v>0.13</v>
       </c>
       <c r="I15">
-        <v>0.06896551724137931</v>
+        <v>0.075</v>
       </c>
       <c r="J15">
-        <v>0.3908045977011494</v>
+        <v>0.395</v>
       </c>
       <c r="K15">
-        <v>0.06896551724137931</v>
+        <v>0.065</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09770114942528736</v>
+        <v>0.095</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2298850574712644</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0115606936416185</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1734104046242775</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="I16">
-        <v>0.06358381502890173</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="J16">
-        <v>0.4450867052023121</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="K16">
-        <v>0.09248554913294797</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02312138728323699</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05202312138728324</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.138728323699422</v>
+        <v>0.1464646464646465</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0136986301369863</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1671232876712329</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="I17">
-        <v>0.08767123287671233</v>
+        <v>0.0894854586129754</v>
       </c>
       <c r="J17">
-        <v>0.3835616438356164</v>
+        <v>0.4049217002237137</v>
       </c>
       <c r="K17">
-        <v>0.1150684931506849</v>
+        <v>0.116331096196868</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02191780821917808</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07945205479452055</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1315068493150685</v>
+        <v>0.1297539149888143</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01694915254237288</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1525423728813559</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="I18">
-        <v>0.1186440677966102</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J18">
-        <v>0.4661016949152542</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.0847457627118644</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01694915254237288</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05932203389830509</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0847457627118644</v>
+        <v>0.07792207792207792</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01931818181818182</v>
+        <v>0.01596244131455399</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1704545454545454</v>
+        <v>0.1615023474178404</v>
       </c>
       <c r="I19">
-        <v>0.08977272727272727</v>
+        <v>0.08544600938967137</v>
       </c>
       <c r="J19">
-        <v>0.3727272727272727</v>
+        <v>0.3868544600938967</v>
       </c>
       <c r="K19">
-        <v>0.1375</v>
+        <v>0.1342723004694836</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02954545454545454</v>
+        <v>0.02910798122065728</v>
       </c>
       <c r="N19">
-        <v>0.002272727272727273</v>
+        <v>0.002816901408450704</v>
       </c>
       <c r="O19">
-        <v>0.06477272727272727</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1136363636363636</v>
+        <v>0.1183098591549296</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Massachusetts_A.xlsx
+++ b/team_specific_matrix/Massachusetts_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1954397394136808</v>
+        <v>0.1976047904191617</v>
       </c>
       <c r="C2">
-        <v>0.5504885993485342</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02605863192182411</v>
+        <v>0.02694610778443114</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1302931596091205</v>
+        <v>0.1287425149700599</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09771986970684039</v>
+        <v>0.09580838323353294</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03409090909090909</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03977272727272727</v>
+        <v>0.03664921465968586</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7045454545454546</v>
+        <v>0.6963350785340314</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2215909090909091</v>
+        <v>0.2303664921465969</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1132075471698113</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6415094339622641</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2452830188679245</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0972972972972973</v>
+        <v>0.1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01621621621621622</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E6">
-        <v>0.005405405405405406</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="F6">
-        <v>0.04324324324324325</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2702702702702703</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02162162162162162</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1567567567567568</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="R6">
-        <v>0.04864864864864865</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="S6">
-        <v>0.3405405405405406</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1191709844559585</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04663212435233161</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="E7">
-        <v>0.005181347150259068</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="F7">
-        <v>0.04663212435233161</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1347150259067358</v>
+        <v>0.1455399061032864</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0155440414507772</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2020725388601036</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="R7">
-        <v>0.1088082901554404</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="S7">
-        <v>0.3212435233160622</v>
+        <v>0.3145539906103286</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09509202453987731</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03680981595092025</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="E8">
-        <v>0.003067484662576687</v>
+        <v>0.002617801047120419</v>
       </c>
       <c r="F8">
-        <v>0.07668711656441718</v>
+        <v>0.07068062827225131</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.147239263803681</v>
+        <v>0.1596858638743456</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01226993865030675</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1625766871165644</v>
+        <v>0.1649214659685864</v>
       </c>
       <c r="R8">
-        <v>0.07668711656441718</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="S8">
-        <v>0.3895705521472393</v>
+        <v>0.3926701570680629</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1420765027322404</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01092896174863388</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="F9">
-        <v>0.06010928961748634</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1639344262295082</v>
+        <v>0.158974358974359</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03278688524590164</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1420765027322404</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="R9">
-        <v>0.0546448087431694</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="S9">
-        <v>0.3934426229508197</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1173139158576052</v>
+        <v>0.1131254532269761</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02346278317152103</v>
+        <v>0.02393038433647571</v>
       </c>
       <c r="E10">
-        <v>0.0008090614886731392</v>
+        <v>0.0007251631617113851</v>
       </c>
       <c r="F10">
-        <v>0.06472491909385113</v>
+        <v>0.06526468455402465</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1440129449838188</v>
+        <v>0.1464829586656998</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01132686084142395</v>
+        <v>0.01160261058738216</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.244336569579288</v>
+        <v>0.2422044960116026</v>
       </c>
       <c r="R10">
-        <v>0.07281553398058252</v>
+        <v>0.07469180565627266</v>
       </c>
       <c r="S10">
-        <v>0.3211974110032362</v>
+        <v>0.321972443799855</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1486486486486487</v>
+        <v>0.151702786377709</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08445945945945946</v>
+        <v>0.0804953560371517</v>
       </c>
       <c r="K11">
-        <v>0.1756756756756757</v>
+        <v>0.1795665634674923</v>
       </c>
       <c r="L11">
-        <v>0.5743243243243243</v>
+        <v>0.5696594427244582</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01689189189189189</v>
+        <v>0.01857585139318885</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7167630057803468</v>
+        <v>0.7165775401069518</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2254335260115607</v>
+        <v>0.2299465240641711</v>
       </c>
       <c r="K12">
-        <v>0.005780346820809248</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="L12">
-        <v>0.03468208092485549</v>
+        <v>0.03208556149732621</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01734104046242774</v>
+        <v>0.0160427807486631</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6818181818181818</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03</v>
+        <v>0.02790697674418605</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.13</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="I15">
-        <v>0.075</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="J15">
-        <v>0.395</v>
+        <v>0.3906976744186046</v>
       </c>
       <c r="K15">
-        <v>0.065</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.095</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.21</v>
+        <v>0.2232558139534884</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0101010101010101</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1717171717171717</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="I16">
-        <v>0.06565656565656566</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="J16">
-        <v>0.4242424242424243</v>
+        <v>0.4245283018867925</v>
       </c>
       <c r="K16">
-        <v>0.1060606060606061</v>
+        <v>0.1084905660377359</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02525252525252525</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0505050505050505</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1464646464646465</v>
+        <v>0.1462264150943396</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01118568232662192</v>
+        <v>0.01202404809619238</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1610738255033557</v>
+        <v>0.1743486973947896</v>
       </c>
       <c r="I17">
-        <v>0.0894854586129754</v>
+        <v>0.09018036072144289</v>
       </c>
       <c r="J17">
-        <v>0.4049217002237137</v>
+        <v>0.4028056112224449</v>
       </c>
       <c r="K17">
-        <v>0.116331096196868</v>
+        <v>0.1102204408817635</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01789709172259508</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06935123042505593</v>
+        <v>0.06412825651302605</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1297539149888143</v>
+        <v>0.12625250501002</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01948051948051948</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1493506493506493</v>
+        <v>0.1560693641618497</v>
       </c>
       <c r="I18">
-        <v>0.1428571428571428</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4335260115606936</v>
       </c>
       <c r="K18">
-        <v>0.09740259740259741</v>
+        <v>0.09248554913294797</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01948051948051948</v>
+        <v>0.02312138728323699</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="O18">
-        <v>0.06493506493506493</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07792207792207792</v>
+        <v>0.08092485549132948</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01596244131455399</v>
+        <v>0.01588628762541806</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1615023474178404</v>
+        <v>0.1714046822742475</v>
       </c>
       <c r="I19">
-        <v>0.08544600938967137</v>
+        <v>0.0794314381270903</v>
       </c>
       <c r="J19">
-        <v>0.3868544600938967</v>
+        <v>0.387123745819398</v>
       </c>
       <c r="K19">
-        <v>0.1342723004694836</v>
+        <v>0.1321070234113712</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02910798122065728</v>
+        <v>0.02675585284280936</v>
       </c>
       <c r="N19">
-        <v>0.002816901408450704</v>
+        <v>0.002508361204013378</v>
       </c>
       <c r="O19">
-        <v>0.06572769953051644</v>
+        <v>0.06605351170568562</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1183098591549296</v>
+        <v>0.1187290969899666</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Massachusetts_A.xlsx
+++ b/team_specific_matrix/Massachusetts_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1976047904191617</v>
+        <v>0.2028571428571428</v>
       </c>
       <c r="C2">
-        <v>0.5508982035928144</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02694610778443114</v>
+        <v>0.02571428571428571</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1287425149700599</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09580838323353294</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03664921465968586</v>
+        <v>0.03553299492385787</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03664921465968586</v>
+        <v>0.04060913705583756</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6963350785340314</v>
+        <v>0.700507614213198</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2303664921465969</v>
+        <v>0.2233502538071066</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.103448275862069</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6206896551724138</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2758620689655172</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01428571428571429</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E6">
-        <v>0.004761904761904762</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F6">
-        <v>0.05714285714285714</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2619047619047619</v>
+        <v>0.2648401826484018</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01904761904761905</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1571428571428571</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="R6">
-        <v>0.04285714285714286</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="S6">
-        <v>0.3428571428571429</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1126760563380282</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04694835680751173</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="E7">
-        <v>0.004694835680751174</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F7">
-        <v>0.04694835680751173</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1455399061032864</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01408450704225352</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2065727699530517</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="R7">
-        <v>0.107981220657277</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="S7">
-        <v>0.3145539906103286</v>
+        <v>0.3150684931506849</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09424083769633508</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03141361256544502</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E8">
-        <v>0.002617801047120419</v>
+        <v>0.002525252525252525</v>
       </c>
       <c r="F8">
-        <v>0.07068062827225131</v>
+        <v>0.07323232323232323</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1596858638743456</v>
+        <v>0.154040404040404</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01047120418848168</v>
+        <v>0.01262626262626263</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1649214659685864</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R8">
-        <v>0.07329842931937172</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="S8">
-        <v>0.3926701570680629</v>
+        <v>0.3914141414141414</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1384615384615385</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01025641025641026</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="E9">
-        <v>0.005128205128205128</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="F9">
-        <v>0.05641025641025641</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.158974358974359</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03589743589743589</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1384615384615385</v>
+        <v>0.1336633663366337</v>
       </c>
       <c r="R9">
-        <v>0.05641025641025641</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.405940594059406</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1131254532269761</v>
+        <v>0.1147887323943662</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02393038433647571</v>
+        <v>0.02464788732394366</v>
       </c>
       <c r="E10">
-        <v>0.0007251631617113851</v>
+        <v>0.0007042253521126761</v>
       </c>
       <c r="F10">
-        <v>0.06526468455402465</v>
+        <v>0.06549295774647887</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1464829586656998</v>
+        <v>0.1450704225352113</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01160261058738216</v>
+        <v>0.01197183098591549</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2422044960116026</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="R10">
-        <v>0.07469180565627266</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="S10">
-        <v>0.321972443799855</v>
+        <v>0.321830985915493</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.151702786377709</v>
+        <v>0.1552238805970149</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0804953560371517</v>
+        <v>0.08059701492537313</v>
       </c>
       <c r="K11">
-        <v>0.1795665634674923</v>
+        <v>0.182089552238806</v>
       </c>
       <c r="L11">
-        <v>0.5696594427244582</v>
+        <v>0.564179104477612</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01857585139318885</v>
+        <v>0.01791044776119403</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7165775401069518</v>
+        <v>0.7135416666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2299465240641711</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="K12">
-        <v>0.0053475935828877</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="L12">
-        <v>0.03208556149732621</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0160427807486631</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7083333333333334</v>
+        <v>0.68</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02790697674418605</v>
+        <v>0.03070175438596491</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1348837209302326</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="I15">
-        <v>0.07441860465116279</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="J15">
-        <v>0.3906976744186046</v>
+        <v>0.3903508771929824</v>
       </c>
       <c r="K15">
-        <v>0.06046511627906977</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08837209302325581</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2232558139534884</v>
+        <v>0.2192982456140351</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009433962264150943</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.169811320754717</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I16">
-        <v>0.0660377358490566</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="J16">
-        <v>0.4245283018867925</v>
+        <v>0.416289592760181</v>
       </c>
       <c r="K16">
-        <v>0.1084905660377359</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02358490566037736</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05188679245283019</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1462264150943396</v>
+        <v>0.1447963800904978</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01202404809619238</v>
+        <v>0.01171875</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1743486973947896</v>
+        <v>0.169921875</v>
       </c>
       <c r="I17">
-        <v>0.09018036072144289</v>
+        <v>0.091796875</v>
       </c>
       <c r="J17">
-        <v>0.4028056112224449</v>
+        <v>0.40234375</v>
       </c>
       <c r="K17">
-        <v>0.1102204408817635</v>
+        <v>0.109375</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02004008016032064</v>
+        <v>0.01953125</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06412825651302605</v>
+        <v>0.064453125</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.12625250501002</v>
+        <v>0.130859375</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01734104046242774</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1560693641618497</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="I18">
-        <v>0.1329479768786127</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.4335260115606936</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K18">
-        <v>0.09248554913294797</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02312138728323699</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="N18">
-        <v>0.005780346820809248</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="O18">
-        <v>0.05780346820809248</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08092485549132948</v>
+        <v>0.08888888888888889</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01588628762541806</v>
+        <v>0.01610305958132045</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1714046822742475</v>
+        <v>0.1731078904991948</v>
       </c>
       <c r="I19">
-        <v>0.0794314381270903</v>
+        <v>0.07890499194847021</v>
       </c>
       <c r="J19">
-        <v>0.387123745819398</v>
+        <v>0.3848631239935588</v>
       </c>
       <c r="K19">
-        <v>0.1321070234113712</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02675585284280936</v>
+        <v>0.02657004830917874</v>
       </c>
       <c r="N19">
-        <v>0.002508361204013378</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="O19">
-        <v>0.06605351170568562</v>
+        <v>0.06682769726247988</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1187290969899666</v>
+        <v>0.1215780998389694</v>
       </c>
     </row>
   </sheetData>
